--- a/TDC_GUI2CRATE_COVERSION.xlsx
+++ b/TDC_GUI2CRATE_COVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaubt/Desktop/CDet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{566E693F-51C4-C741-94B8-79ECFCAD6968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4655E-5EC0-3F43-8C4B-DF90ED8EFEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="side by side" sheetId="7" r:id="rId1"/>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,13 +700,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -926,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05BE62F-80DE-9F4E-9121-7F1151BB2C44}">
   <dimension ref="B2:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,39 +938,39 @@
       <c r="B2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
       <c r="Q2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
     </row>
     <row r="3" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -2249,7 +2246,7 @@
         <v>160</v>
       </c>
       <c r="S34" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T34" s="7" t="s">
         <v>179</v>
@@ -2289,7 +2286,7 @@
         <v>161</v>
       </c>
       <c r="S35" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>180</v>
@@ -2329,7 +2326,7 @@
         <v>162</v>
       </c>
       <c r="S36" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>181</v>
@@ -2369,7 +2366,7 @@
         <v>163</v>
       </c>
       <c r="S37" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>182</v>
@@ -2409,7 +2406,7 @@
         <v>164</v>
       </c>
       <c r="S38" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>183</v>
@@ -2449,7 +2446,7 @@
         <v>165</v>
       </c>
       <c r="S39" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>184</v>
@@ -2489,7 +2486,7 @@
         <v>166</v>
       </c>
       <c r="S40" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>174</v>
@@ -2529,7 +2526,7 @@
         <v>167</v>
       </c>
       <c r="S41" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>173</v>
@@ -2663,7 +2660,7 @@
       <c r="D45" s="3">
         <v>6</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F45" s="5"/>
@@ -2696,22 +2693,22 @@
       </c>
     </row>
     <row r="46" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="10"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="2:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="E47" s="10"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="2:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="E48" s="10"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E49" s="10"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E50" s="10"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E51" s="10"/>
+      <c r="E51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
